--- a/data/trans_camb/P18_5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P18_5_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-12,03</t>
+          <t>-12,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-16,26</t>
+          <t>-29,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-16,47</t>
+          <t>-28,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-15,66</t>
+          <t>-28,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,08</t>
+          <t>-12,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,53</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-14,02</t>
+          <t>-7,04</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-10,97</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-14,64</t>
+          <t>-12,54</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-14,35</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-17,45</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-13,54</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 9,31</t>
+          <t>-44,49; 30,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,89; -4,85</t>
+          <t>-56,89; -10,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-36,0; -5,74</t>
+          <t>-58,03; -8,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,07; -3,22</t>
+          <t>-57,4; -7,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 5,16</t>
+          <t>-31,76; 2,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,51; -1,71</t>
+          <t>-17,89; 16,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,52; -2,4</t>
+          <t>-25,47; 11,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,43; -2,6</t>
+          <t>-20,61; 25,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-24,89; -6,75</t>
+          <t>-28,94; 13,23</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-31,26; -1,35</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-36,1; -3,03</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-33,12; 6,47</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-48,45%</t>
+          <t>-32,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-65,48%</t>
+          <t>-78,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-66,34%</t>
+          <t>-75,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-50,2%</t>
+          <t>-74,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-22,7%</t>
+          <t>-41,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-43,38%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-49,55%</t>
+          <t>-22,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-38,78%</t>
+          <t>-3,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-51,74%</t>
+          <t>-36,75%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-42,04%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-51,12%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-39,68%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-86,81; 82,44</t>
+          <t>-95,49; 201,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-88,55; -22,7</t>
+          <t>-97,14; -31,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-87,59; -30,74</t>
+          <t>-95,81; -25,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-69,54; -9,22</t>
+          <t>-95,16; -21,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,35; 22,67</t>
+          <t>-76,24; 19,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,54; -5,6</t>
+          <t>-44,7; 77,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,95; -1,82</t>
+          <t>-63,78; 54,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-60,84; -10,82</t>
+          <t>-58,68; 143,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-70,95; -25,6</t>
+          <t>-71,31; 60,23</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-69,47; -4,27</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-75,73; -5,33</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-75,86; 24,33</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-15,32</t>
+          <t>-13,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,17</t>
+          <t>-11,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-13,34</t>
+          <t>-6,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-21,55</t>
+          <t>-10,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-17,83</t>
+          <t>-21,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,77</t>
+          <t>-18,52</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-18,6</t>
+          <t>-12,81</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-15,72</t>
+          <t>-15,33</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-13,93</t>
+          <t>-17,59</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-14,97</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-10,15</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-13,13</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,72; -9,14</t>
+          <t>-22,51; -5,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,66; -6,06</t>
+          <t>-19,73; -2,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,98; -5,26</t>
+          <t>-17,07; 6,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,71; -14,97</t>
+          <t>-18,67; -1,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,39; -11,06</t>
+          <t>-28,22; -11,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,15; -6,57</t>
+          <t>-26,66; -9,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,97; -13,94</t>
+          <t>-21,54; -3,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,93; -10,47</t>
+          <t>-23,81; -5,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,25; -9,17</t>
+          <t>-23,12; -11,65</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-21,41; -8,62</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-17,39; -1,86</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-19,91; -6,69</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-65,94%</t>
+          <t>-64,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-56,7%</t>
+          <t>-51,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-57,43%</t>
+          <t>-32,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-66,96%</t>
+          <t>-48,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-55,39%</t>
+          <t>-66,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-42,78%</t>
+          <t>-58,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-66,62%</t>
+          <t>-40,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-56,29%</t>
+          <t>-48,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-49,89%</t>
+          <t>-65,6%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-55,86%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-37,87%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-48,98%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,05; -39,2</t>
+          <t>-83,14; -32,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-72,54; -26,18</t>
+          <t>-73,21; -8,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-74,83; -23,0</t>
+          <t>-67,4; 42,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-78,67; -51,39</t>
+          <t>-72,39; -12,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,95; -38,1</t>
+          <t>-77,93; -42,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,03; -21,21</t>
+          <t>-72,86; -35,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-75,15; -52,15</t>
+          <t>-59,48; -14,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,7; -40,82</t>
+          <t>-67,15; -20,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-61,7; -33,8</t>
+          <t>-77,23; -49,17</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-69,63; -35,74</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-58,19; -7,15</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-64,48; -28,22</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-16,72</t>
+          <t>-14,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-13,77</t>
+          <t>-13,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-11,55</t>
+          <t>-11,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-23,19</t>
+          <t>-14,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-13,49</t>
+          <t>-23,68</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-15,99</t>
+          <t>-12,73</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-20,19</t>
+          <t>-15,69</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-13,64</t>
+          <t>-16,13</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-13,97</t>
+          <t>-19,5</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-12,9</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-13,94</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-15,37</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,8; -9,97</t>
+          <t>-23,17; -4,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,31; -6,66</t>
+          <t>-21,75; -3,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,3; -3,46</t>
+          <t>-21,32; -2,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-29,73; -16,65</t>
+          <t>-22,32; -4,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,19; -5,11</t>
+          <t>-31,81; -16,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,42; -8,71</t>
+          <t>-22,15; -3,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-25,17; -14,7</t>
+          <t>-24,56; -6,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,02; -7,72</t>
+          <t>-25,28; -7,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-19,24; -8,18</t>
+          <t>-25,93; -14,11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-19,22; -6,93</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-20,28; -7,91</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-21,43; -8,41</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-66,9%</t>
+          <t>-61,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-55,1%</t>
+          <t>-55,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-46,22%</t>
+          <t>-50,01%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-72,16%</t>
+          <t>-60,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-41,99%</t>
+          <t>-77,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-49,77%</t>
+          <t>-41,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-70,04%</t>
+          <t>-51,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-47,31%</t>
+          <t>-52,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-48,46%</t>
+          <t>-71,24%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-47,12%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-50,93%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-56,15%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-82,02; -45,62</t>
+          <t>-80,73; -25,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-72,61; -28,96</t>
+          <t>-77,34; -18,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,78; -16,84</t>
+          <t>-73,05; -9,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-80,79; -58,7</t>
+          <t>-79,91; -24,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,08; -16,96</t>
+          <t>-88,17; -59,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,07; -29,3</t>
+          <t>-62,43; -11,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-78,29; -56,91</t>
+          <t>-69,52; -24,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,18; -31,05</t>
+          <t>-70,12; -27,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-60,35; -31,48</t>
+          <t>-82,81; -57,05</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-61,92; -27,97</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-65,74; -31,02</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-69,55; -36,32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-15,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-13,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-13,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-21,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-14,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-14,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-18,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-14,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-14,1</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,53; -10,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,7; -8,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,65; -8,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,66; -16,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -9,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,46; -9,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-21,56; -14,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,68; -10,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,5; -10,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-63,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-57,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-55,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-65,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-44,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-45,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-64,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-50,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-49,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-75,05; -43,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,49; -41,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-68,07; -35,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-74,14; -56,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-54,99; -32,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-56,2; -32,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-71,81; -53,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-58,62; -41,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-57,77; -38,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-13,69</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-14,36</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-11,67</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-14,24</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-21,01</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-13,65</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-13,1</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-12,89</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-17,6</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-14,06</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-12,56</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-13,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-20,63; -3,52</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-21,84; -8,4</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-19,74; -2,74</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-22,05; -8,05</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-26,15; -15,19</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-19,84; -7,61</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-19,38; -7,11</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-19,25; -4,93</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-22,15; -12,34</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-19,0; -9,91</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-17,38; -7,18</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-18,51; -8,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-56,18%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-58,9%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-47,88%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-58,43%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-67,34%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-43,75%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-41,98%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-41,31%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-62,82%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-50,17%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-44,84%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-48,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-73,82; -5,29</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-73,54; -39,43</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-67,63; -4,8</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-72,75; -37,04</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-77,03; -55,22</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-56,81; -26,73</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-55,97; -24,14</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-56,9; -16,87</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-72,52; -45,73</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-60,49; -38,25</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-56,1; -25,31</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-59,99; -31,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
